--- a/1.项目规划/《口袋医生》项目_测试用例.xlsx
+++ b/1.项目规划/《口袋医生》项目_测试用例.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -1051,8 +1051,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1153,7 +1153,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1227,6 +1227,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1261,6 +1262,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1436,14 +1438,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E43" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
@@ -1455,7 +1457,7 @@
     <col min="8" max="8" width="47.375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="39.950000000000003" customHeight="1">
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1481,7 +1483,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="2" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1504,7 +1506,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="3" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1530,7 +1532,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="4" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1556,7 +1558,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="5" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1579,7 +1581,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="6" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1602,7 +1604,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="7" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1625,7 +1627,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="8" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1648,7 +1650,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="9" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1674,7 +1676,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="10" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1700,7 +1702,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="11" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1726,7 +1728,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="12" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1752,7 +1754,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="13" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1778,7 +1780,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="14" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1804,7 +1806,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="15" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1830,7 +1832,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="16" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1856,7 +1858,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="17" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1882,7 +1884,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="18" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1908,7 +1910,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="19" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1934,7 +1936,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="20" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1957,7 +1959,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="21" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1980,7 +1982,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="22" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2003,7 +2005,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="23" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2026,7 +2028,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="24" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2049,7 +2051,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="25" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2072,7 +2074,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="26" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2098,7 +2100,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="27" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2121,7 +2123,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="28" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2144,7 +2146,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="29" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2167,7 +2169,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="30" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2187,7 +2189,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="31" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2210,7 +2212,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="32" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2230,7 +2232,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="33" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2253,7 +2255,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="34" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2276,7 +2278,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="35" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2299,7 +2301,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="36" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2319,7 +2321,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="74.25" customHeight="1">
+    <row r="37" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2345,7 +2347,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="38" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2368,7 +2370,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="39" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2391,7 +2393,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="47.25" customHeight="1">
+    <row r="40" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2414,7 +2416,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="41" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2437,7 +2439,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="81" customHeight="1">
+    <row r="42" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2463,7 +2465,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="43" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2486,7 +2488,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="44" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2512,7 +2514,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="45" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2538,7 +2540,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="39.950000000000003" customHeight="1">
+    <row r="46" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2562,6 +2564,181 @@
       </c>
       <c r="H46" s="6" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="1">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2572,12 +2749,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2585,12 +2762,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.项目规划/《口袋医生》项目_测试用例.xlsx
+++ b/1.项目规划/《口袋医生》项目_测试用例.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="267">
   <si>
     <t>用例ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1045,6 +1045,50 @@
   </si>
   <si>
     <t>进入病友帮进入病友帮，选择一个帮进入，点开一条帖子，在帖子下面进行评论，提交评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台管理系统首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP使用监测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在用户使用APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示具体使用信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台管理系统首页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在用户预约</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预约挂号量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择时间区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示正确的信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1441,8 +1485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2566,11 +2610,6 @@
         <v>254</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-    </row>
     <row r="48" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>47</v>
@@ -2656,89 +2695,122 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B80" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
